--- a/SchedulingData/dynamic13/pso/scheduling1_18.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_18.xlsx
@@ -462,173 +462,173 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>62.6</v>
+        <v>77.98</v>
       </c>
       <c r="E2" t="n">
-        <v>25.92</v>
+        <v>26.832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="E3" t="n">
-        <v>26.96</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>77.98</v>
       </c>
       <c r="D4" t="n">
-        <v>53.72</v>
+        <v>125.98</v>
       </c>
       <c r="E4" t="n">
-        <v>26.828</v>
+        <v>22.672</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>41.02</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>27.088</v>
+        <v>26.524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41.02</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>99.04000000000001</v>
+        <v>36.3</v>
       </c>
       <c r="E6" t="n">
-        <v>23.396</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52.3</v>
+        <v>36.3</v>
       </c>
       <c r="D7" t="n">
-        <v>103.14</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>23.996</v>
+        <v>23.584</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>62.6</v>
+        <v>52.1</v>
       </c>
       <c r="D8" t="n">
-        <v>125.56</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>22.224</v>
+        <v>22.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>125.56</v>
+        <v>125.98</v>
       </c>
       <c r="D9" t="n">
-        <v>188.78</v>
+        <v>165.44</v>
       </c>
       <c r="E9" t="n">
-        <v>18.012</v>
+        <v>19.856</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>165.44</v>
       </c>
       <c r="D10" t="n">
-        <v>92.3</v>
+        <v>210.64</v>
       </c>
       <c r="E10" t="n">
-        <v>26.4</v>
+        <v>16.476</v>
       </c>
     </row>
     <row r="11">
@@ -637,245 +637,245 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>53.72</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>113.32</v>
+        <v>149.74</v>
       </c>
       <c r="E11" t="n">
-        <v>23.968</v>
+        <v>19.976</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99.04000000000001</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>143.62</v>
+        <v>38.72</v>
       </c>
       <c r="E12" t="n">
-        <v>20.068</v>
+        <v>26.828</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>82.90000000000001</v>
+        <v>144.56</v>
       </c>
       <c r="E13" t="n">
-        <v>25.84</v>
+        <v>19.504</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>103.14</v>
+        <v>144.56</v>
       </c>
       <c r="D14" t="n">
-        <v>150.7</v>
+        <v>194.94</v>
       </c>
       <c r="E14" t="n">
-        <v>20.86</v>
+        <v>16.096</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>150.7</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>196.86</v>
+        <v>123.7</v>
       </c>
       <c r="E15" t="n">
-        <v>17.384</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>92.3</v>
+        <v>38.72</v>
       </c>
       <c r="D16" t="n">
-        <v>126.7</v>
+        <v>123.26</v>
       </c>
       <c r="E16" t="n">
-        <v>23.6</v>
+        <v>22.964</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>188.78</v>
+        <v>194.94</v>
       </c>
       <c r="D17" t="n">
-        <v>231.42</v>
+        <v>248.94</v>
       </c>
       <c r="E17" t="n">
-        <v>14.888</v>
+        <v>13.296</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>143.62</v>
+        <v>248.94</v>
       </c>
       <c r="D18" t="n">
-        <v>224.38</v>
+        <v>331.96</v>
       </c>
       <c r="E18" t="n">
-        <v>16.092</v>
+        <v>9.603999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>196.86</v>
+        <v>149.74</v>
       </c>
       <c r="D19" t="n">
-        <v>251.8</v>
+        <v>206.34</v>
       </c>
       <c r="E19" t="n">
-        <v>13.52</v>
+        <v>16.436</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>126.7</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>189.76</v>
+        <v>44.8</v>
       </c>
       <c r="E20" t="n">
-        <v>19.904</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>251.8</v>
+        <v>210.64</v>
       </c>
       <c r="D21" t="n">
-        <v>303.78</v>
+        <v>250.74</v>
       </c>
       <c r="E21" t="n">
-        <v>10.452</v>
+        <v>13.596</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>303.78</v>
+        <v>206.34</v>
       </c>
       <c r="D22" t="n">
-        <v>375.24</v>
+        <v>257.9</v>
       </c>
       <c r="E22" t="n">
-        <v>6.916</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>375.24</v>
+        <v>257.9</v>
       </c>
       <c r="D23" t="n">
-        <v>430.14</v>
+        <v>315.96</v>
       </c>
       <c r="E23" t="n">
-        <v>4.056</v>
+        <v>9.204000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -884,340 +884,340 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>224.38</v>
+        <v>44.8</v>
       </c>
       <c r="D24" t="n">
-        <v>293.68</v>
+        <v>129.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.252</v>
+        <v>22.356</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>113.32</v>
+        <v>250.74</v>
       </c>
       <c r="D25" t="n">
-        <v>176.1</v>
+        <v>287.82</v>
       </c>
       <c r="E25" t="n">
-        <v>20.8</v>
+        <v>10.528</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>176.1</v>
+        <v>129.24</v>
       </c>
       <c r="D26" t="n">
-        <v>240.94</v>
+        <v>184.04</v>
       </c>
       <c r="E26" t="n">
-        <v>16.936</v>
+        <v>18.516</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>240.94</v>
+        <v>184.04</v>
       </c>
       <c r="D27" t="n">
-        <v>292.5</v>
+        <v>231.34</v>
       </c>
       <c r="E27" t="n">
-        <v>13.4</v>
+        <v>14.916</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>231.42</v>
+        <v>231.34</v>
       </c>
       <c r="D28" t="n">
-        <v>286.9</v>
+        <v>276.24</v>
       </c>
       <c r="E28" t="n">
-        <v>11.48</v>
+        <v>11.556</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>292.5</v>
+        <v>287.82</v>
       </c>
       <c r="D29" t="n">
-        <v>338.56</v>
+        <v>359.28</v>
       </c>
       <c r="E29" t="n">
-        <v>10.904</v>
+        <v>6.992</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>82.90000000000001</v>
+        <v>331.96</v>
       </c>
       <c r="D30" t="n">
-        <v>122.36</v>
+        <v>400.12</v>
       </c>
       <c r="E30" t="n">
-        <v>23.024</v>
+        <v>5.908</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>122.36</v>
+        <v>123.26</v>
       </c>
       <c r="D31" t="n">
-        <v>210.96</v>
+        <v>161.66</v>
       </c>
       <c r="E31" t="n">
-        <v>19.244</v>
+        <v>20.764</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>210.96</v>
+        <v>161.66</v>
       </c>
       <c r="D32" t="n">
-        <v>252.56</v>
+        <v>210.84</v>
       </c>
       <c r="E32" t="n">
-        <v>15.724</v>
+        <v>17.956</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>252.56</v>
+        <v>276.24</v>
       </c>
       <c r="D33" t="n">
-        <v>312.26</v>
+        <v>351.04</v>
       </c>
       <c r="E33" t="n">
-        <v>12.844</v>
+        <v>8.696</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>286.9</v>
+        <v>359.28</v>
       </c>
       <c r="D34" t="n">
-        <v>386.5</v>
+        <v>418.66</v>
       </c>
       <c r="E34" t="n">
-        <v>6.62</v>
+        <v>3.664</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>189.76</v>
+        <v>210.84</v>
       </c>
       <c r="D35" t="n">
-        <v>249.76</v>
+        <v>262.24</v>
       </c>
       <c r="E35" t="n">
-        <v>16.524</v>
+        <v>14.436</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>249.76</v>
+        <v>315.96</v>
       </c>
       <c r="D36" t="n">
-        <v>340.86</v>
+        <v>375.86</v>
       </c>
       <c r="E36" t="n">
-        <v>12.504</v>
+        <v>6.344</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>340.86</v>
+        <v>375.86</v>
       </c>
       <c r="D37" t="n">
-        <v>386.66</v>
+        <v>437.12</v>
       </c>
       <c r="E37" t="n">
-        <v>10.064</v>
+        <v>3.848</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>312.26</v>
+        <v>123.7</v>
       </c>
       <c r="D38" t="n">
-        <v>364.06</v>
+        <v>177.22</v>
       </c>
       <c r="E38" t="n">
-        <v>9.304</v>
+        <v>19.188</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>364.06</v>
+        <v>351.04</v>
       </c>
       <c r="D39" t="n">
-        <v>418.96</v>
+        <v>401.26</v>
       </c>
       <c r="E39" t="n">
-        <v>5.944</v>
+        <v>5.784</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>293.68</v>
+        <v>400.12</v>
       </c>
       <c r="D40" t="n">
-        <v>336.98</v>
+        <v>447.78</v>
       </c>
       <c r="E40" t="n">
-        <v>10.052</v>
+        <v>2.772</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>386.66</v>
+        <v>262.24</v>
       </c>
       <c r="D41" t="n">
-        <v>426.04</v>
+        <v>351.54</v>
       </c>
       <c r="E41" t="n">
-        <v>7.256</v>
+        <v>9.576000000000001</v>
       </c>
     </row>
   </sheetData>
